--- a/data/comidas.xlsx
+++ b/data/comidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5A3794-48F6-4565-BEDC-1E6409A7B2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781437BB-61DF-43DC-9EF1-B821599F1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comidas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="96">
   <si>
     <t>Comida</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Crema de Cacahuete</t>
+  </si>
+  <si>
+    <t>h9</t>
   </si>
 </sst>
 </file>
@@ -889,8 +892,8 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1541,7 @@
         <v>85</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/data/comidas.xlsx
+++ b/data/comidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781437BB-61DF-43DC-9EF1-B821599F1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF783991-8529-4309-8159-87DDAB75D3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comidas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="95">
   <si>
     <t>Comida</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>Crema de Cacahuete</t>
-  </si>
-  <si>
-    <t>h9</t>
   </si>
 </sst>
 </file>
@@ -892,8 +889,8 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1538,7 @@
         <v>85</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/data/comidas.xlsx
+++ b/data/comidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF783991-8529-4309-8159-87DDAB75D3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE6464-1FD4-48FF-9306-46236879D5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="comidas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comidas!$A$1:$F$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comidas!$A$1:$F$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="103">
   <si>
     <t>Comida</t>
   </si>
@@ -155,15 +155,6 @@
     <t>Snack</t>
   </si>
   <si>
-    <t>Componentes a repartir/combinar</t>
-  </si>
-  <si>
-    <t>snack</t>
-  </si>
-  <si>
-    <t>Tortitas/cereales/Crema de arroz o pan sin gluten</t>
-  </si>
-  <si>
     <t>Opción 1: Legumbres con Arroz y Verduras</t>
   </si>
   <si>
@@ -321,6 +312,39 @@
   </si>
   <si>
     <t>Crema de Cacahuete</t>
+  </si>
+  <si>
+    <t>Frutos secos</t>
+  </si>
+  <si>
+    <t>Chocolate negro</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>Tortitas</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>Crema de arroz</t>
+  </si>
+  <si>
+    <t>Todos los ingredientes base</t>
+  </si>
+  <si>
+    <t>Tortitas con fruta y yogur</t>
+  </si>
+  <si>
+    <t>Chocolate, frutos secos y Yogur</t>
+  </si>
+  <si>
+    <t>Torradas con heura</t>
   </si>
 </sst>
 </file>
@@ -346,7 +370,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +383,14 @@
         <bgColor rgb="FFF6F8F9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -548,11 +578,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -591,6 +695,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,8 +808,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_1" displayName="Tabla_1" ref="A1:F74">
-  <autoFilter ref="A1:F74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_1" displayName="Tabla_1" ref="A1:F92">
+  <autoFilter ref="A1:F92" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Comida"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Plato"/>
@@ -886,11 +1023,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -923,81 +1060,81 @@
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
+      <c r="A5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8">
-        <v>200</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="22">
+        <v>100</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1009,16 +1146,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1029,356 +1166,356 @@
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E9" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E15" s="8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5">
+        <v>350</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="8">
+        <v>125</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="E19" s="5">
+        <v>150</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8">
+        <v>100</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>35</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8">
+        <v>35</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8">
         <v>10</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5">
-        <v>400</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8">
-        <v>50</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5">
-        <v>50</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8">
-        <v>10</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="8">
-        <v>20</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="5">
-        <v>50</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1386,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E25" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1406,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1426,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E27" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1446,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E28" s="8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1466,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1486,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E30" s="8">
-        <v>5</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1506,119 +1643,119 @@
         <v>0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E31" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E32" s="8">
-        <v>85</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="5">
-        <v>100</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>61</v>
+      <c r="A35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="21">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E36" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1626,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E37" s="5">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1646,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>14</v>
@@ -1658,7 +1795,7 @@
         <v>100</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1666,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E39" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1686,39 +1823,39 @@
         <v>0</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E40" s="8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>62</v>
+      <c r="A41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="5">
-        <v>300</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="21">
+        <v>100</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1726,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>9</v>
@@ -1738,27 +1875,27 @@
         <v>150</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" s="5">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1766,119 +1903,119 @@
         <v>0</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E44" s="8">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E45" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E46" s="8">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E47" s="5">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" s="5">
+        <v>90</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1886,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" s="8">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1906,484 +2043,844 @@
         <v>0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E51" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E52" s="8">
-        <v>250</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>66</v>
+        <v>400</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E53" s="5">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E54" s="8">
-        <v>35</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E55" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="8">
+        <v>150</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="21">
+        <v>25</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="8">
-        <v>5</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="5">
-        <v>200</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E58" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E59" s="5">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="8">
+        <v>55</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="8">
-        <v>100</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E61" s="5">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E62" s="8">
-        <v>200</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E63" s="5">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>85</v>
+      <c r="A64" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="8">
-        <v>150</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="E64" s="22">
+        <v>25</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E65" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>91</v>
+      <c r="A66" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E66" s="8">
-        <v>50</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E67" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68" s="8">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E69" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E70" s="8">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="5">
+        <v>85</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="12">
+        <v>5</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="15">
+        <v>5</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="19">
+        <v>5</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="19">
+        <v>5</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5">
+        <v>5</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="19">
+        <v>5</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="19">
+        <v>5</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="19">
+        <v>5</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="D80" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="15">
+        <v>63</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="19">
+        <v>50</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="17">
+        <v>50</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="22">
+        <v>100</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="21">
+        <v>15</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="21">
+        <v>100</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="19">
+        <v>50</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="21">
+        <v>25</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="F89" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="22">
+        <v>100</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="8">
-        <v>100</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="5">
-        <v>5</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="12">
-        <v>200</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>18</v>
+      <c r="E92" s="15">
+        <v>63</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D74" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C81 C87 D2:D92" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Hidratos,Grasas,Fruta,Lácteo Vegetal,Proteína,Fruta/Verdura,Hidratos/Fruta,Extra,Hidratos/Proteína,Verduras,Proteína/Hidratos"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/comidas.xlsx
+++ b/data/comidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE6464-1FD4-48FF-9306-46236879D5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB40D6-8937-45D7-9CC1-7A36F8751793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,11 +706,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -724,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,7 +808,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_1" displayName="Tabla_1" ref="A1:F92">
-  <autoFilter ref="A1:F92" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:F92" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Snack"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Hidratos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Comida"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Plato"/>
@@ -1026,8 +1036,8 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>73</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
@@ -1118,11 +1128,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1131,14 +1141,14 @@
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>100</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -1298,7 +1308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -1358,7 +1368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -1418,7 +1428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>73</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
@@ -1478,7 +1488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>73</v>
       </c>
@@ -1498,7 +1508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
@@ -1718,27 +1728,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -1838,27 +1848,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+    <row r="41" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>100</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -1938,7 +1948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +1968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +2008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>73</v>
       </c>
@@ -2018,7 +2028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>6</v>
       </c>
@@ -2098,7 +2108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>6</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>73</v>
       </c>
@@ -2138,7 +2148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>73</v>
       </c>
@@ -2158,11 +2168,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -2171,14 +2181,14 @@
       <c r="D57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>25</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>6</v>
       </c>
@@ -2218,7 +2228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -2238,7 +2248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>73</v>
       </c>
@@ -2258,7 +2268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
@@ -2298,11 +2308,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+    <row r="64" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -2311,14 +2321,14 @@
       <c r="D64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="21">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>6</v>
       </c>
@@ -2338,14 +2348,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+    <row r="66" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>93</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -2354,11 +2364,11 @@
       <c r="E66" s="8">
         <v>10</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
@@ -2398,7 +2408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>0</v>
       </c>
@@ -2498,11 +2508,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+    <row r="74" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -2511,18 +2521,18 @@
       <c r="D74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="18">
         <v>5</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+    <row r="75" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -2531,18 +2541,18 @@
       <c r="D75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="18">
         <v>5</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+    <row r="76" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -2554,75 +2564,75 @@
       <c r="E76" s="5">
         <v>5</v>
       </c>
-      <c r="F76" s="19" t="s">
+      <c r="F76" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="77" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="18">
         <v>5</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+    <row r="78" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="18">
         <v>5</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F78" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
+    <row r="79" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="18">
         <v>5</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F79" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+    <row r="80" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C80" s="15" t="s">
@@ -2639,67 +2649,67 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="19">
-        <v>50</v>
-      </c>
-      <c r="F81" s="26" t="s">
+      <c r="E81" s="18">
+        <v>40</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="17">
-        <v>50</v>
-      </c>
-      <c r="F82" s="17" t="s">
+      <c r="E82">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E83">
-        <v>50</v>
-      </c>
-      <c r="F83" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+    <row r="84" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B84" t="s">
@@ -2711,35 +2721,35 @@
       <c r="D84" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="21">
         <v>100</v>
       </c>
-      <c r="F84" s="25" t="s">
+      <c r="F84" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+    <row r="85" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B85" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="20">
         <v>15</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+    <row r="86" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
@@ -2748,38 +2758,38 @@
       <c r="C86" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="20">
         <v>100</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="19">
-        <v>50</v>
-      </c>
-      <c r="F87" s="26" t="s">
+      <c r="E87" s="18">
+        <v>40</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+    <row r="88" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
@@ -2791,21 +2801,21 @@
       <c r="D88" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="20">
         <v>25</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="22" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -2814,12 +2824,12 @@
       <c r="E89" s="8">
         <v>10</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+    <row r="90" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B90" t="s">
@@ -2831,15 +2841,15 @@
       <c r="D90" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="21">
         <v>100</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B91" t="s">
@@ -2848,18 +2858,18 @@
       <c r="C91" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+    <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B92" t="s">
